--- a/test_shift.xlsx
+++ b/test_shift.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\playprogram\Auto_shift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7338BD4C-50BE-41B2-90FC-9CA8077347F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07367B57-4143-432E-8AB2-9667C7971FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-11235" windowWidth="16440" windowHeight="28440" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
   <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -647,37 +647,44 @@
         <v>15</v>
       </c>
       <c r="E2" s="2">
-        <v>0.39583333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F2" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.5625</v>
-      </c>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="2">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0.6875</v>
-      </c>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2">
-        <v>0.72916666666666696</v>
-      </c>
-      <c r="N2" s="2">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0.4375</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0.33333333333333331</v>
       </c>
       <c r="Z2" s="2">
         <v>0.4375</v>
@@ -688,37 +695,44 @@
         <v>16</v>
       </c>
       <c r="E3" s="2">
-        <v>0.5</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F3" s="2">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.625</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.66666666666666696</v>
-      </c>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="2">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.79166666666666696</v>
-      </c>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="2">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="N3" s="2">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="T3" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0.64583333333333337</v>
       </c>
       <c r="Z3" s="2">
         <v>0.47916666666666669</v>
@@ -738,10 +752,41 @@
         <v>15</v>
       </c>
       <c r="E4" s="2">
-        <v>0.4375</v>
-      </c>
-      <c r="N4" s="2">
-        <v>0.125</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.4">
@@ -749,10 +794,41 @@
         <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.16666666666666699</v>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.4">
@@ -768,22 +844,78 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.47916666666666669</v>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.33333333333333331</v>
       </c>
       <c r="N6" s="2">
-        <v>0.20833333333333301</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.58333333333333337</v>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.64583333333333337</v>
       </c>
       <c r="N7" s="2">
-        <v>0.25</v>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.4">
@@ -799,16 +931,54 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="2">
-        <v>0.29166666666666702</v>
+      <c r="G8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="R8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="2">
-        <v>0.33333333333333298</v>
+      <c r="G9" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="R9" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.4">
@@ -824,16 +994,48 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="2">
-        <v>0.375</v>
+      <c r="F10" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="2">
-        <v>0.41666666666666702</v>
+      <c r="F11" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.4">
@@ -849,16 +1051,52 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
+      <c r="G12" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="N12" s="2">
-        <v>0.45833333333333298</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="D13" t="s">
         <v>16</v>
       </c>
+      <c r="G13" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="N13" s="2">
-        <v>0.5</v>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.4">
@@ -874,16 +1112,52 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
+      <c r="E14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="N14" s="2">
-        <v>0.54166666666666696</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>16</v>
       </c>
+      <c r="E15" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="N15" s="2">
-        <v>0.58333333333333304</v>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="S15" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.4">
@@ -899,19 +1173,57 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="N16" s="2">
-        <v>0.625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="P16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="2">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="H17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="P17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>9</v>
       </c>
@@ -926,13 +1238,13 @@
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10</v>
       </c>
@@ -947,13 +1259,13 @@
       </c>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>16</v>
       </c>
       <c r="N21" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="J26">
         <v>2022</v>
       </c>

--- a/test_shift.xlsx
+++ b/test_shift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\playprogram\Auto_shift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07367B57-4143-432E-8AB2-9667C7971FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DF449A-8644-4770-9BB2-21DF52521706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
   </bookViews>
@@ -510,8 +510,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -543,7 +543,7 @@
         <v>44836</v>
       </c>
       <c r="G1" s="1">
-        <f t="shared" ref="G1:Z1" si="0">IF(WEEKDAY(F1,2)=7,F1+3,F1+1)</f>
+        <f t="shared" ref="G1:AA1" si="0">IF(WEEKDAY(F1,2)=7,F1+3,F1+1)</f>
         <v>44839</v>
       </c>
       <c r="H1" s="1">
@@ -698,7 +698,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F3" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -794,7 +794,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="H5" s="2">
         <v>0.64583333333333337</v>
@@ -803,7 +803,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="L5" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2">
@@ -819,7 +819,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="T5" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V5" s="2">
         <v>0.64583333333333337</v>
@@ -828,7 +828,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="Y5" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.4">
@@ -903,7 +903,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="Q7" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="S7" s="2">
         <v>0.64583333333333337</v>
@@ -965,10 +965,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="K9" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="L9" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="N9" s="2"/>
       <c r="R9" s="2">
@@ -1019,20 +1019,20 @@
         <v>16</v>
       </c>
       <c r="F11" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="I11" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="M11" s="2">
         <v>0.64583333333333337</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V11" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="Y11" s="2">
         <v>0.64583333333333337</v>
@@ -1084,13 +1084,13 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="N13" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="P13" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="R13" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="T13" s="2">
         <v>0.64583333333333337</v>
@@ -1148,16 +1148,16 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="S15" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="V15" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="X15" s="2">
         <v>0.64583333333333337</v>
       </c>
       <c r="Z15" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.4">
@@ -1217,10 +1217,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="X17" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="Z17" s="2">
-        <v>0.64583333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.4">

--- a/test_shift.xlsx
+++ b/test_shift.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\playprogram\Auto_shift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1760379A-0B06-40A1-A7F5-C4971CF6D9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B48AC-108B-4628-B964-DF4B4B1BC935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
+    <workbookView xWindow="-16320" yWindow="-11235" windowWidth="16440" windowHeight="28440" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -533,20 +533,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C9C0DC-5871-41CF-BE03-1C2CD3E05B3D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="6" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -658,7 +658,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -718,7 +718,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -729,7 +729,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="F3" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -769,10 +769,10 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="Z3" s="6">
-        <v>0.47916666666666669</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -832,7 +832,7 @@
       </c>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -840,7 +840,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -853,7 +853,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="L5" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
@@ -871,7 +871,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="T5" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="6">
@@ -882,11 +882,11 @@
       </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -944,7 +944,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -976,7 +976,7 @@
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="R7" s="5"/>
       <c r="S7" s="6">
@@ -996,7 +996,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -1046,7 +1046,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1064,10 +1064,10 @@
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="L9" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
@@ -1090,7 +1090,7 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>5</v>
       </c>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1147,12 +1147,12 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
@@ -1171,7 +1171,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1251,15 +1251,15 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="6">
@@ -1274,7 +1274,7 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>7</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1352,12 +1352,12 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="6">
@@ -1365,10 +1365,10 @@
       </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>8</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1455,14 +1455,14 @@
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
       <c r="X17" s="6">
-        <v>0.54166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="Y17" s="5"/>
       <c r="Z17" s="6">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>9</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1526,7 +1526,7 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>10</v>
       </c>
@@ -1560,7 +1560,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1590,7 +1590,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="J26" s="2">
         <v>2022</v>
       </c>
@@ -1602,6 +1602,93 @@
       </c>
       <c r="M26" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>7.5</v>
+      </c>
+      <c r="G34">
+        <f>E34*$F$34</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E46">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.4">
+      <c r="E48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E49">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test_shift.xlsx
+++ b/test_shift.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\playprogram\Auto_shift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B48AC-108B-4628-B964-DF4B4B1BC935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE064711-3F2F-4B2F-BF2D-00F28239C454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-11235" windowWidth="16440" windowHeight="28440" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -122,10 +122,21 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>番号</t>
+    <t>社員orバイト</t>
     <rPh sb="0" eb="2">
-      <t>バンゴウ</t>
+      <t>シャイン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -153,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,6 +233,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,20 +553,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C9C0DC-5871-41CF-BE03-1C2CD3E05B3D}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AJ49"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="26" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -658,9 +680,9 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A2" s="3">
-        <v>1</v>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -718,10 +740,10 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
@@ -772,9 +794,9 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A4" s="3">
-        <v>2</v>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -832,10 +854,10 @@
       </c>
       <c r="Z4" s="5"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
@@ -886,9 +908,9 @@
       </c>
       <c r="Z5" s="5"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A6" s="3">
-        <v>3</v>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -944,10 +966,10 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
@@ -996,9 +1018,9 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A8" s="3">
-        <v>4</v>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
@@ -1046,10 +1068,10 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
@@ -1090,9 +1112,9 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A10" s="3">
-        <v>5</v>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -1138,10 +1160,10 @@
       </c>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1180,9 +1202,9 @@
       </c>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A12" s="3">
-        <v>6</v>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
@@ -1230,10 +1252,10 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="3" t="s">
         <v>14</v>
       </c>
@@ -1274,9 +1296,9 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A14" s="3">
-        <v>7</v>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>7</v>
@@ -1324,10 +1346,10 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1368,9 +1390,9 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="A16" s="3">
-        <v>8</v>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
@@ -1418,10 +1440,10 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1462,9 +1484,9 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A18" s="3">
-        <v>9</v>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5">
@@ -1496,10 +1518,10 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1526,9 +1548,9 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A20" s="3">
-        <v>10</v>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5">
@@ -1560,7 +1582,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1590,7 +1612,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="J26" s="2">
         <v>2022</v>
       </c>
@@ -1602,93 +1624,6 @@
       </c>
       <c r="M26" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>7.5</v>
-      </c>
-      <c r="G34">
-        <f>E34*$F$34</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E37">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E44">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.4">
-      <c r="E48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E49">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test_shift.xlsx
+++ b/test_shift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\playprogram\Auto_shift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE064711-3F2F-4B2F-BF2D-00F28239C454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FBFE96-896E-43F2-B8A3-C45ED2D4E3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
   </bookViews>
@@ -555,8 +555,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16:X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -699,18 +699,26 @@
       <c r="F2" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N2" s="6"/>
+      <c r="N2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="O2" s="6">
         <v>0.33333333333333331</v>
       </c>
@@ -728,8 +736,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="6"/>
+      <c r="V2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="X2" s="6">
         <v>0.33333333333333331</v>
       </c>
@@ -753,18 +765,26 @@
       <c r="F3" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="N3" s="6"/>
+      <c r="N3" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="O3" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -782,8 +802,12 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="6"/>
+      <c r="V3" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="X3" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -812,47 +836,39 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="H4" s="6"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="K4" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="L4" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="L4" s="6"/>
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="P4" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="Q4" s="6"/>
       <c r="R4" s="5"/>
-      <c r="S4" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="S4" s="6"/>
       <c r="T4" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="U4" s="5"/>
-      <c r="V4" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="Z4" s="5"/>
+      <c r="Z4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
@@ -866,17 +882,15 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="K5" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="L5" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="L5" s="6"/>
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6">
@@ -885,28 +899,22 @@
       <c r="P5" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="Q5" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="Q5" s="6"/>
       <c r="R5" s="5"/>
-      <c r="S5" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="S5" s="6"/>
       <c r="T5" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="U5" s="5"/>
-      <c r="V5" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="W5" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
       <c r="X5" s="5"/>
       <c r="Y5" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="Z5" s="5"/>
+      <c r="Z5" s="6">
+        <v>0.64583333333333337</v>
+      </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
@@ -926,7 +934,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G6" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6">
@@ -941,14 +949,16 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="N6" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="R6" s="5"/>
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="S6" s="6">
         <v>0.33333333333333331</v>
       </c>
@@ -956,7 +966,9 @@
       <c r="U6" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="V6" s="5"/>
+      <c r="V6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="W6" s="5"/>
       <c r="X6" s="6">
         <v>0.33333333333333331</v>
@@ -975,7 +987,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="G7" s="6">
         <v>0.64583333333333337</v>
@@ -1000,7 +1012,9 @@
       <c r="Q7" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="R7" s="5"/>
+      <c r="R7" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="S7" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -1008,7 +1022,9 @@
       <c r="U7" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="V7" s="5"/>
+      <c r="V7" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="W7" s="5"/>
       <c r="X7" s="6">
         <v>0.64583333333333337</v>
@@ -1033,17 +1049,13 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="G8" s="6"/>
       <c r="H8" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="K8" s="6"/>
       <c r="L8" s="6">
         <v>0.33333333333333331</v>
       </c>
@@ -1061,9 +1073,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="V8" s="5"/>
-      <c r="W8" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="W8" s="6"/>
       <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -1077,19 +1087,15 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="K9" s="6"/>
       <c r="L9" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
@@ -1105,9 +1111,7 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="V9" s="5"/>
-      <c r="W9" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="W9" s="6"/>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
@@ -1138,16 +1142,18 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="S10" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="6">
@@ -1189,7 +1195,9 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="6">
@@ -1210,7 +1218,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
@@ -1229,7 +1237,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="6">
@@ -1277,7 +1285,7 @@
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="6">
@@ -1285,12 +1293,12 @@
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
       <c r="W13" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="X13" s="5"/>
       <c r="Y13" s="5"/>
@@ -1304,7 +1312,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -1330,12 +1338,12 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
       <c r="S14" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="W14" s="5"/>
       <c r="X14" s="6">
@@ -1360,7 +1368,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1383,11 +1391,11 @@
       </c>
       <c r="W15" s="5"/>
       <c r="X15" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
@@ -1398,7 +1406,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
@@ -1410,31 +1418,23 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="J16" s="6"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="L16" s="6"/>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
       <c r="O16" s="5"/>
       <c r="P16" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="T16" s="6"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="X16" s="6"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="6">
         <v>0.33333333333333331</v>
@@ -1451,16 +1451,12 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="6">
-        <v>0.64583333333333337</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="J17" s="6"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="L17" s="6"/>
       <c r="M17" s="5"/>
       <c r="N17" s="6"/>
       <c r="O17" s="5"/>
@@ -1470,15 +1466,11 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="T17" s="6"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="X17" s="6"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="6">
         <v>0.64583333333333337</v>

--- a/test_shift.xlsx
+++ b/test_shift.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\playprogram\Auto_shift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FBFE96-896E-43F2-B8A3-C45ED2D4E3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E95D0-FAC6-407D-87FF-597DBDCE92DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19620" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,14 +129,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>バイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>社員</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バイト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -556,10 +556,10 @@
   <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16:X17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
@@ -568,7 +568,7 @@
     <col min="12" max="26" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
@@ -680,7 +680,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -752,7 +752,7 @@
         <v>0.4375</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -818,9 +818,9 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -870,7 +870,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -916,7 +916,7 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1034,9 +1034,9 @@
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
@@ -1047,14 +1047,18 @@
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="J8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6">
         <v>0.33333333333333331</v>
@@ -1062,7 +1066,9 @@
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="P8" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="Q8" s="5"/>
       <c r="R8" s="6">
         <v>0.33333333333333331</v>
@@ -1078,21 +1084,25 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="J9" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6">
         <v>0.45833333333333331</v>
@@ -1100,7 +1110,9 @@
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="P9" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="Q9" s="5"/>
       <c r="R9" s="6">
         <v>0.64583333333333337</v>
@@ -1116,9 +1128,9 @@
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>5</v>
@@ -1149,7 +1161,9 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="6">
         <v>0.33333333333333331</v>
@@ -1166,7 +1180,7 @@
       </c>
       <c r="Z10" s="5"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1193,7 +1207,9 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="Q11" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="6">
         <v>0.64583333333333337</v>
@@ -1210,9 +1226,9 @@
       </c>
       <c r="Z11" s="5"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>6</v>
@@ -1235,7 +1251,9 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="M12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="N12" s="6">
         <v>0.45833333333333331</v>
       </c>
@@ -1260,7 +1278,7 @@
       <c r="Y12" s="5"/>
       <c r="Z12" s="5"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1279,7 +1297,9 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="N13" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -1304,9 +1324,9 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>7</v>
@@ -1327,21 +1347,29 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="K14" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="N14" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="R14" s="5"/>
       <c r="S14" s="6">
         <v>0.45833333333333331</v>
       </c>
       <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
+      <c r="U14" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="V14" s="6">
         <v>0.45833333333333331</v>
       </c>
@@ -1354,7 +1382,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1368,24 +1396,32 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="K15" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="N15" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="Q15" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="R15" s="5"/>
       <c r="S15" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
+      <c r="U15" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="V15" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -1398,9 +1434,9 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
@@ -1412,7 +1448,9 @@
         <v>13</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6">
         <v>0.33333333333333331</v>
@@ -1420,7 +1458,9 @@
       <c r="I16" s="5"/>
       <c r="J16" s="6"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
       <c r="O16" s="5"/>
@@ -1430,17 +1470,21 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
-      <c r="T16" s="6"/>
+      <c r="T16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
+      <c r="W16" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="X16" s="6"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="6">
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1448,7 +1492,9 @@
         <v>14</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="F17" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6">
         <v>0.45833333333333331</v>
@@ -1456,7 +1502,9 @@
       <c r="I17" s="5"/>
       <c r="J17" s="6"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="M17" s="5"/>
       <c r="N17" s="6"/>
       <c r="O17" s="5"/>
@@ -1466,19 +1514,23 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="6"/>
+      <c r="T17" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
+      <c r="W17" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="X17" s="6"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="6">
         <v>0.64583333333333337</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5">
@@ -1510,7 +1562,7 @@
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -1540,9 +1592,9 @@
       <c r="Y19" s="5"/>
       <c r="Z19" s="5"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A20" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5">
@@ -1574,7 +1626,7 @@
       <c r="Y20" s="5"/>
       <c r="Z20" s="5"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1604,7 +1656,7 @@
       <c r="Y21" s="5"/>
       <c r="Z21" s="5"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
       <c r="J26" s="2">
         <v>2022</v>
       </c>

--- a/test_shift.xlsx
+++ b/test_shift.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\playprogram\Auto_shift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2E95D0-FAC6-407D-87FF-597DBDCE92DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E86B2D6-6D10-43E0-AAC1-3C797E6F1114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
+    <workbookView xWindow="-16320" yWindow="-11235" windowWidth="16440" windowHeight="28440" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -133,9 +133,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
+    <t>シフト作成数：</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -555,8 +558,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -565,7 +568,9 @@
     <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="26" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.4">
@@ -696,9 +701,7 @@
       <c r="E2" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="F2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="6">
         <v>0.33333333333333331</v>
       </c>
@@ -709,9 +712,7 @@
       <c r="J2" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6">
         <v>0.33333333333333331</v>
@@ -719,12 +720,8 @@
       <c r="N2" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="O2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
       <c r="Q2" s="6">
         <v>0.33333333333333331</v>
       </c>
@@ -732,24 +729,20 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="S2" s="5"/>
-      <c r="T2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="U2" s="5"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="V2" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="W2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="X2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
       <c r="Y2" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="Z2" s="6">
-        <v>0.4375</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.4">
@@ -762,9 +755,7 @@
       <c r="E3" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="F3" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -775,9 +766,7 @@
       <c r="J3" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="K3" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6">
         <v>0.64583333333333337</v>
@@ -785,12 +774,8 @@
       <c r="N3" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="O3" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
       <c r="Q3" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -798,19 +783,15 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="S3" s="5"/>
-      <c r="T3" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="U3" s="5"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="V3" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="W3" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="X3" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
       <c r="Y3" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -831,41 +812,43 @@
       <c r="D4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="L4" s="6"/>
+      <c r="I4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="P4" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-      <c r="R4" s="5"/>
+      <c r="R4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="W4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y4" s="6"/>
       <c r="Z4" s="6">
         <v>0.33333333333333331</v>
       </c>
@@ -877,48 +860,50 @@
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F5" s="5"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="L5" s="6"/>
+      <c r="I5" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="M5" s="5"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="P5" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="U5" s="5"/>
       <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="W5" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="X5" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Y5" s="6"/>
       <c r="Z5" s="6">
         <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
@@ -929,12 +914,12 @@
       <c r="D6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="E6" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F6" s="6"/>
       <c r="G6" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6">
@@ -943,40 +928,34 @@
       <c r="J6" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="N6" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="R6" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="P6" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
       <c r="S6" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="T6" s="5"/>
-      <c r="U6" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="U6" s="6"/>
       <c r="V6" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="W6" s="5"/>
-      <c r="X6" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z6" s="6"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
@@ -985,10 +964,10 @@
       <c r="D7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="E7" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F7" s="6"/>
       <c r="G7" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -999,40 +978,34 @@
       <c r="J7" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="N7" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="R7" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="P7" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
       <c r="S7" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="T7" s="5"/>
-      <c r="U7" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="U7" s="6"/>
       <c r="V7" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="W7" s="5"/>
-      <c r="X7" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Z7" s="6"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
@@ -1047,40 +1020,46 @@
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="O8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R8" s="6"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
+      <c r="T8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="U8" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="V8" s="5"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="5"/>
+      <c r="W8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
     </row>
@@ -1091,40 +1070,46 @@
       <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="6"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="O9" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="R9" s="6"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
+      <c r="T9" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="U9" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="V9" s="5"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="5"/>
+      <c r="W9" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="Y9" s="5"/>
       <c r="Z9" s="5"/>
     </row>
@@ -1141,44 +1126,44 @@
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="E10" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="H10" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I10" s="6"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="K10" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q10" s="6"/>
       <c r="R10" s="5"/>
       <c r="S10" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="W10" s="5"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="X10" s="5"/>
-      <c r="Y10" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Z10" s="5"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6">
+        <v>0.33333333333333331</v>
+      </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
@@ -1187,44 +1172,44 @@
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="E11" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="H11" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I11" s="6"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Q11" s="6"/>
       <c r="R11" s="5"/>
       <c r="S11" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="W11" s="5"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="X11" s="5"/>
-      <c r="Y11" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="Z11" s="5"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6">
+        <v>0.64583333333333337</v>
+      </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
@@ -1240,42 +1225,40 @@
         <v>13</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="G12" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="I12" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="K12" s="6"/>
       <c r="L12" s="5"/>
       <c r="M12" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="P12" s="6"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="6">
         <v>0.33333333333333331</v>
       </c>
       <c r="S12" s="5"/>
-      <c r="T12" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="T12" s="6"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="V12" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W12" s="6"/>
       <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
+      <c r="Y12" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.4">
@@ -1286,42 +1269,40 @@
         <v>14</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="F13" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="G13" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="J13" s="5"/>
-      <c r="K13" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="K13" s="6"/>
       <c r="L13" s="5"/>
       <c r="M13" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="N13" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="P13" s="6"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="S13" s="5"/>
-      <c r="T13" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="T13" s="6"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="V13" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="W13" s="6"/>
       <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
+      <c r="Y13" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.4">
@@ -1342,18 +1323,16 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="H14" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L14" s="5"/>
-      <c r="M14" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="M14" s="6"/>
       <c r="N14" s="6">
         <v>0.33333333333333331</v>
       </c>
@@ -1363,16 +1342,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="R14" s="5"/>
-      <c r="S14" s="6">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="V14" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
       <c r="W14" s="5"/>
       <c r="X14" s="6">
         <v>0.33333333333333331</v>
@@ -1394,18 +1369,16 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="H15" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I15" s="6"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="L15" s="5"/>
-      <c r="M15" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="M15" s="6"/>
       <c r="N15" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -1415,23 +1388,19 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="R15" s="5"/>
-      <c r="S15" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="T15" s="5"/>
-      <c r="U15" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="V15" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
       <c r="W15" s="5"/>
       <c r="X15" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="Y15" s="5"/>
       <c r="Z15" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.64583333333333337</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.4">
@@ -1448,41 +1417,37 @@
         <v>13</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="F16" s="6"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="6">
-        <v>0.45833333333333331</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="O16" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P16" s="6"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="S16" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T16" s="6"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="W16" s="6"/>
       <c r="X16" s="6"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="Y16" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z16" s="6"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
@@ -1492,41 +1457,37 @@
         <v>14</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="F17" s="6"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="6">
-        <v>0.45833333333333331</v>
-      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="K17" s="5"/>
       <c r="L17" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="M17" s="5"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="O17" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="P17" s="6"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="S17" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="T17" s="6"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="W17" s="6"/>
       <c r="X17" s="6"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="Y17" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="Z17" s="6"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A18" s="5" t="s">
@@ -1669,6 +1630,12 @@
       <c r="M26" t="s">
         <v>10</v>
       </c>
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/test_shift.xlsx
+++ b/test_shift.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\playprogram\Auto_shift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E86B2D6-6D10-43E0-AAC1-3C797E6F1114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C752D1D-3236-4495-BA72-AAADFE62531E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-11235" windowWidth="16440" windowHeight="28440" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
   </bookViews>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -705,10 +705,10 @@
       <c r="G2" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J2" s="6">
         <v>0.33333333333333331</v>
       </c>
@@ -733,9 +733,7 @@
       <c r="U2" s="6">
         <v>0.33333333333333331</v>
       </c>
-      <c r="V2" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6">
@@ -759,10 +757,10 @@
       <c r="G3" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="H3" s="6">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="I3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="J3" s="6">
         <v>0.64583333333333337</v>
       </c>
@@ -787,9 +785,7 @@
       <c r="U3" s="6">
         <v>0.64583333333333337</v>
       </c>
-      <c r="V3" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="V3" s="6"/>
       <c r="W3" s="6"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="6">
@@ -1313,7 +1309,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
@@ -1634,7 +1630,7 @@
         <v>17</v>
       </c>
       <c r="O26" s="2">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/test_shift.xlsx
+++ b/test_shift.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\playprogram\Auto_shift\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celeron\Documents\test_shift\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C752D1D-3236-4495-BA72-AAADFE62531E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937AA69F-6447-4A20-BF7F-B55E9E0EDF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-11235" windowWidth="16440" windowHeight="28440" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB63EBC4-5422-4C3B-9DE2-74C4B84ECD94}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -558,8 +558,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AJ26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -699,48 +699,48 @@
         <v>13</v>
       </c>
       <c r="E2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="J2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="N2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="R2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="S2" s="5"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
       <c r="Y2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="Z2" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.4">
@@ -810,43 +810,43 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="U4" s="5"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="X4" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.4">
@@ -911,45 +911,45 @@
         <v>13</v>
       </c>
       <c r="E6" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="J6" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="K6" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="T6" s="5"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="W6" s="5"/>
       <c r="X6" s="6"/>
       <c r="Y6" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="Z6" s="6"/>
     </row>
@@ -1018,43 +1018,43 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G8" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="R8" s="6"/>
       <c r="S8" s="5"/>
       <c r="T8" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="U8" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="X8" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -1123,42 +1123,42 @@
         <v>13</v>
       </c>
       <c r="E10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="5"/>
       <c r="K10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="5"/>
       <c r="S10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.4">
@@ -1222,38 +1222,40 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="G12" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
       <c r="L12" s="5"/>
       <c r="M12" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="6"/>
+      <c r="P12" s="6">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="6"/>
       <c r="U12" s="5"/>
       <c r="V12" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="W12" s="6"/>
       <c r="X12" s="5"/>
       <c r="Y12" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="Z12" s="5"/>
     </row>
@@ -1283,7 +1285,9 @@
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
+      <c r="P13" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="6">
         <v>0.64583333333333337</v>
@@ -1309,48 +1313,46 @@
         <v>7</v>
       </c>
       <c r="C14" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="5"/>
       <c r="K14" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="R14" s="5"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="6">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="W14" s="6">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="X14" s="6"/>
       <c r="Y14" s="5"/>
       <c r="Z14" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.4">
@@ -1365,9 +1367,7 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
       <c r="K15" s="6">
@@ -1390,10 +1390,10 @@
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="6">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="W15" s="6">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="X15" s="6"/>
       <c r="Y15" s="5"/>
       <c r="Z15" s="6">
         <v>0.64583333333333337</v>
@@ -1412,36 +1412,42 @@
       <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="P16" s="6"/>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="6">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="R16" s="5"/>
       <c r="S16" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="T16" s="6"/>
       <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
+      <c r="V16" s="6">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="W16" s="6"/>
       <c r="X16" s="6"/>
       <c r="Y16" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="Z16" s="6"/>
     </row>
@@ -1452,10 +1458,12 @@
       <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="6">
         <v>0.64583333333333337</v>
@@ -1470,14 +1478,18 @@
         <v>0.64583333333333337</v>
       </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="5"/>
+      <c r="Q17" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="R17" s="5"/>
       <c r="S17" s="6">
         <v>0.64583333333333337</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
+      <c r="V17" s="6">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="W17" s="6"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6">
@@ -1630,7 +1642,7 @@
         <v>17</v>
       </c>
       <c r="O26" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
